--- a/docs/Estimation Report Sprint 4.xlsx
+++ b/docs/Estimation Report Sprint 4.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -439,14 +439,14 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D10" si="0">B2/C2</f>
-        <v>5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
       </c>
       <c r="D11">
         <f>AVERAGE(D2:D10)</f>
-        <v>3.6574074074074079</v>
+        <v>3.6296296296296302</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -593,7 +593,7 @@
       </c>
       <c r="D13">
         <f>SUM(B2:B10)</f>
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
